--- a/bank statement generator/bank_statements/statement_18.xlsx
+++ b/bank statement generator/bank_statements/statement_18.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 09.02.2024</t>
+          <t>KONTOSTAND AM 23.03.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,96 +759,112 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>11.02.</t>
+          <t>25.03.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>12.02.</t>
+          <t>26.03.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL YNENZP</t>
+          <t>PAYPAL YULXRI</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>87,47-</t>
+          <t>72,62-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>15.02.</t>
+          <t>28.03.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>16.02.</t>
+          <t>29.03.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG JET TANKSTELLE</t>
+          <t>PAYPAL AJKVRS</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>43,55-</t>
+          <t>24,82-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>16.02.</t>
+          <t>31.03.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>17.02.</t>
+          <t>01.04.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL CWQVIY</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 58234010</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>16,04-</t>
+          <t>86,26-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>20.02.</t>
+          <t>04.04.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>21.02.</t>
+          <t>05.04.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>RECHNUNG VODAFONE GMBH 95129290</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>27,08-</t>
+          <t>40,07-</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="12" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>05.04.</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>06.04.</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>PAYPAL UZMMSE</t>
+        </is>
+      </c>
+      <c r="E10" s="17" t="inlineStr">
+        <is>
+          <t>42,38-</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="n"/>
@@ -861,12 +877,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 22.02.2024</t>
+          <t>KONTOSTAND AM 10.04.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>174,14-</t>
+          <t>266,15-</t>
         </is>
       </c>
     </row>
@@ -874,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 03.03.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 19.04.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
